--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450381.548198044</v>
+        <v>1442528.808175779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8078410.59064862</v>
+        <v>8854286.53570825</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030761</v>
+        <v>1928039.64103076</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10407336.15125946</v>
+        <v>10349120.81117323</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>308.0641096806898</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2870201402657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>221.4211357805156</v>
       </c>
       <c r="V4" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>230.084235746566</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.97096939745556</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>185.0635387655689</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.2200643720149</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>186.094077010187</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>379.2273422284276</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>28.53118302482819</v>
       </c>
       <c r="U10" t="n">
-        <v>87.56260585869116</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041357</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.1158122680962</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>29.555744385394</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>80.05671066664252</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>114.2656173771021</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>77.31354443380498</v>
+        <v>144.3505407532822</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>142.9783538693482</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>23.35772589727762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>253.020706926528</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>32.04841488801551</v>
       </c>
       <c r="X28" t="n">
-        <v>23.35772589727762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2965,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>109.784636157911</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>98.34760992206299</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>149.4642351393299</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>201.3600324842807</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>115.1269998040537</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>37.59617708813238</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3664,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52.23490948285998</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3718,13 +3718,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>69.00696427191529</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>16.34825474388639</v>
       </c>
       <c r="U41" t="n">
-        <v>229.796569204137</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>51.06561173382013</v>
       </c>
       <c r="G43" t="n">
-        <v>17.43545665624331</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>113.7878770660814</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1099.292566481063</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C2" t="n">
-        <v>730.3300495406515</v>
+        <v>1629.256767270584</v>
       </c>
       <c r="D2" t="n">
-        <v>372.064350933901</v>
+        <v>1270.991068663833</v>
       </c>
       <c r="E2" t="n">
-        <v>372.064350933901</v>
+        <v>885.2028160655889</v>
       </c>
       <c r="F2" t="n">
-        <v>365.1188501846976</v>
+        <v>474.2169112759813</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>56.25310317416819</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>56.25310317416819</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2169.72394915887</v>
+        <v>1679.852297526482</v>
       </c>
       <c r="C5" t="n">
-        <v>1800.761432218458</v>
+        <v>1310.88978058607</v>
       </c>
       <c r="D5" t="n">
-        <v>1442.495733611708</v>
+        <v>952.6240819793197</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>566.8358293810754</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>155.8499245914679</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>142.8025468682994</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>142.8025468682994</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2516.740328444775</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2627.474653694302</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="X5" t="n">
-        <v>2169.72394915887</v>
+        <v>2069.991629502294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2169.72394915887</v>
+        <v>1679.852297526482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2483.438099596678</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>666.410017731453</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>497.4738348035461</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>497.4738348035461</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>497.4738348035461</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>666.410017731453</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1034.912596435357</v>
+        <v>1927.491329511244</v>
       </c>
       <c r="C8" t="n">
-        <v>665.9500794949456</v>
+        <v>1927.491329511244</v>
       </c>
       <c r="D8" t="n">
-        <v>665.9500794949456</v>
+        <v>1569.225630904494</v>
       </c>
       <c r="E8" t="n">
-        <v>665.9500794949456</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="F8" t="n">
-        <v>254.9641747053381</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G8" t="n">
-        <v>241.9167969821696</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,28 +4802,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L8" t="n">
-        <v>593.4635795439093</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.181390527221</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2151.286341942363</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1798.517686672249</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1425.051928411169</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1034.912596435357</v>
+        <v>2314.091169575366</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.5123406265766</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="C10" t="n">
-        <v>627.5123406265766</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="D10" t="n">
-        <v>627.5123406265766</v>
+        <v>769.3245541755809</v>
       </c>
       <c r="E10" t="n">
-        <v>479.5992470441835</v>
+        <v>621.4114605931878</v>
       </c>
       <c r="F10" t="n">
-        <v>332.7092995462731</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1463.241286835611</v>
       </c>
       <c r="U10" t="n">
-        <v>627.5123406265766</v>
+        <v>1174.125681793804</v>
       </c>
       <c r="V10" t="n">
-        <v>627.5123406265766</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="W10" t="n">
-        <v>627.5123406265766</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="X10" t="n">
-        <v>627.5123406265766</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="Y10" t="n">
-        <v>627.5123406265766</v>
+        <v>919.4411935879167</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038042</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.66971909763</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490879</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E11" t="n">
-        <v>709.6157678926352</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030276</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
@@ -5045,46 +5045,46 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329462</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339055</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077975</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102163</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>943.7005868594143</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>774.7644039315074</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1897.440260830519</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1642.755772624632</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.338602587671</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1125.349051689654</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1125.349051689654</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1285.591601078693</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>916.6290841382813</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>558.3633855315309</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>558.3633855315309</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>147.3774807419233</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>147.3774807419233</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993391</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993391</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.796531379706</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>2062.330773118626</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1672.191441142815</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5425,16 +5425,16 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
         <v>315.6219318279954</v>
@@ -5458,19 +5458,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
         <v>1722.044275313594</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,7 +5498,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5549,16 +5549,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3314.416602430729</v>
+        <v>724.8986285230101</v>
       </c>
       <c r="C19" t="n">
-        <v>3145.480419502822</v>
+        <v>555.9624455951032</v>
       </c>
       <c r="D19" t="n">
-        <v>2995.363780090487</v>
+        <v>555.9624455951032</v>
       </c>
       <c r="E19" t="n">
-        <v>2917.269290763411</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>4778.05172241972</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>4488.948855545364</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V19" t="n">
-        <v>4234.264367339477</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="W19" t="n">
-        <v>3944.847197302516</v>
+        <v>1355.329223394797</v>
       </c>
       <c r="X19" t="n">
-        <v>3716.857646404499</v>
+        <v>1127.33967249678</v>
       </c>
       <c r="Y19" t="n">
-        <v>3496.065067260969</v>
+        <v>906.5470933532498</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.187565809179</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3236.322113103653</v>
+        <v>873.6292205778367</v>
       </c>
       <c r="C22" t="n">
-        <v>3067.385930175747</v>
+        <v>704.6930376499298</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763411</v>
+        <v>554.576398237594</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763411</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004074</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.7687655736</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699243</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493357</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456396</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X22" t="n">
-        <v>3417.970577933893</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y22" t="n">
-        <v>3417.970577933893</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,13 +5993,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.7687655736</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699243</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493357</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>3475.404938850399</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>3475.404938850399</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3475.404938850399</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6230,46 +6230,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3236.322113103654</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C28" t="n">
-        <v>3067.385930175747</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D28" t="n">
-        <v>2917.269290763412</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763412</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763412</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.768765573601</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699244</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>3730.981410493358</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>3441.564240456397</v>
+        <v>1380.18397477394</v>
       </c>
       <c r="X28" t="n">
-        <v>3417.970577933894</v>
+        <v>1152.194423875922</v>
       </c>
       <c r="Y28" t="n">
-        <v>3417.970577933894</v>
+        <v>1152.194423875922</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6464,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>973.7726509601081</v>
+        <v>691.0067194606532</v>
       </c>
       <c r="C31" t="n">
-        <v>804.8364680322012</v>
+        <v>522.0705365327464</v>
       </c>
       <c r="D31" t="n">
-        <v>654.7198286198654</v>
+        <v>522.0705365327464</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>374.1574429503532</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>374.1574429503532</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>206.4546063250722</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.554715057174</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W31" t="n">
-        <v>1475.554715057174</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X31" t="n">
-        <v>1376.213694933878</v>
+        <v>872.655184290893</v>
       </c>
       <c r="Y31" t="n">
-        <v>1155.421115790348</v>
+        <v>872.655184290893</v>
       </c>
     </row>
     <row r="32">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3384.235206686048</v>
+        <v>3400.125497098742</v>
       </c>
       <c r="C34" t="n">
-        <v>3215.299023758141</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="D34" t="n">
-        <v>3065.182384345805</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H34" t="n">
         <v>2917.269290763412</v>
@@ -6886,22 +6886,22 @@
         <v>4778.051722419721</v>
       </c>
       <c r="T34" t="n">
-        <v>4627.077747531509</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="U34" t="n">
-        <v>4337.974880657152</v>
+        <v>4574.657750213377</v>
       </c>
       <c r="V34" t="n">
-        <v>4083.290392451266</v>
+        <v>4319.97326200749</v>
       </c>
       <c r="W34" t="n">
-        <v>3793.873222414305</v>
+        <v>4030.556091970529</v>
       </c>
       <c r="X34" t="n">
-        <v>3565.883671516287</v>
+        <v>3802.566541072512</v>
       </c>
       <c r="Y34" t="n">
-        <v>3565.883671516287</v>
+        <v>3581.773961928982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
@@ -6938,19 +6938,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107236</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7017,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3531.125154183957</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C37" t="n">
-        <v>3362.18897125605</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="D37" t="n">
-        <v>3212.072331843714</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>3064.159238261321</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>4488.948855545364</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>4450.972919092705</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>4161.555749055744</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>3933.566198157727</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y37" t="n">
-        <v>3712.773619014197</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.866433243363</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="C40" t="n">
-        <v>391.866433243363</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D40" t="n">
-        <v>391.866433243363</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E40" t="n">
-        <v>391.866433243363</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>391.866433243363</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7366,16 +7366,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1094.253638069162</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.866433243363</v>
+        <v>804.8364680322012</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U41" t="n">
-        <v>3093.488074938325</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V41" t="n">
-        <v>3093.488074938325</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7479,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>477.7831921883597</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C43" t="n">
-        <v>477.7831921883597</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D43" t="n">
-        <v>327.666552776024</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E43" t="n">
-        <v>327.666552776024</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F43" t="n">
-        <v>327.666552776024</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W43" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X43" t="n">
-        <v>880.2242361621296</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y43" t="n">
-        <v>659.4316570185995</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038042</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097631</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.40402049088</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>298.6298631030285</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102164</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.8459426266613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>362.8459426266613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>765.2869866004312</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>765.2869866004312</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>544.4944074569011</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>35.04072454780369</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>130.2918063575383</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>378.0407240669645</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>189.7998007892635</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493177</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>256.6560938202189</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>214.5510537206779</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23546,16 +23546,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>172.2573809594889</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>69.12041821276419</v>
+        <v>2.083421893286982</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>3.455608777221016</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>202.3519294917595</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>33.50229141006301</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>254.4745834485755</v>
       </c>
       <c r="X28" t="n">
-        <v>202.3519294917595</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34.97037875640979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>127.3620454669742</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25126,10 +25126,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>70.08471413683927</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>84.85180572133214</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>33.48847321415867</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>113.7908987761682</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>183.1306790519127</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25646,7 +25646,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>187.5697153957337</v>
       </c>
       <c r="U41" t="n">
-        <v>21.19860275476498</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="G43" t="n">
-        <v>148.5903516027849</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>64.8111951831838</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>172.7351212705096</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994535.2673797334</v>
+        <v>972144.3615672112</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>972144.3615672112</v>
+        <v>932465.1917749628</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772123.0244046701</v>
+        <v>772123.0244046703</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772123.0244046703</v>
+        <v>772123.0244046706</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772123.0244046702</v>
+        <v>772123.0244046705</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136505</v>
+        <v>426246.3737136509</v>
       </c>
       <c r="G2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="H2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="H2" t="n">
-        <v>496352.2336087287</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
@@ -26344,16 +26344,16 @@
         <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="N2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="O2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="P2" t="n">
         <v>426246.3737136506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>426246.3737136507</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513057</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734511</v>
+        <v>149914.8602001173</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091497</v>
+        <v>99523.40868091481</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254652</v>
+        <v>39153.48277254658</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136375</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136375</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="O4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="P4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26503,13 +26503,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367502.4053532649</v>
+        <v>-369598.2665758104</v>
       </c>
       <c r="C6" t="n">
-        <v>222465.4738612799</v>
+        <v>52875.69729641569</v>
       </c>
       <c r="D6" t="n">
-        <v>65999.43150503607</v>
+        <v>-19290.72178663933</v>
       </c>
       <c r="E6" t="n">
-        <v>-99056.67352933006</v>
+        <v>196524.3776051349</v>
       </c>
       <c r="F6" t="n">
-        <v>346583.5560441208</v>
+        <v>346439.2378052523</v>
       </c>
       <c r="G6" t="n">
-        <v>272704.7645719036</v>
+        <v>271883.4673212048</v>
       </c>
       <c r="H6" t="n">
-        <v>372228.1732528184</v>
+        <v>371406.8760021194</v>
       </c>
       <c r="I6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="J6" t="n">
-        <v>195804.9540602255</v>
+        <v>194983.6568095265</v>
       </c>
       <c r="K6" t="n">
-        <v>372228.1732528186</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="L6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021194</v>
       </c>
       <c r="M6" t="n">
-        <v>333074.6904802721</v>
+        <v>332253.3932295728</v>
       </c>
       <c r="N6" t="n">
-        <v>372228.1732528184</v>
+        <v>371406.8760021194</v>
       </c>
       <c r="O6" t="n">
-        <v>346583.5560441209</v>
+        <v>346439.2378052521</v>
       </c>
       <c r="P6" t="n">
-        <v>346583.556044121</v>
+        <v>346439.237805252</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26826,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.209655395264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>157.1141826477369</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>363.1114752026372</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>157.1141826477367</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>363.1114752026377</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>157.1141826477365</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477367</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026377</v>
+        <v>363.1114752026372</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.7200603401052</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>149.6442961045956</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>64.86073846146212</v>
       </c>
       <c r="V4" t="n">
-        <v>241.1333486527698</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>151.8461343256957</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>30.52507149643473</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>101.2183354764089</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.36458898007984</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>128.9468070650285</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>7.010596427625956</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>192.0056111371734</v>
       </c>
       <c r="U10" t="n">
-        <v>198.6980487994059</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>70.37821951911188</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>131.427271174484</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>271.0278223588042</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>578.7040994736965</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923303</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,10 +35665,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037176</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -36121,16 +36121,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>742.101636202175</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36598,7 +36598,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,7 +36607,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36832,22 +36832,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37306,22 +37306,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541893.064374088</v>
+        <v>1537587.347998016</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.3055094953049</v>
+        <v>350.0635064299827</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>164.5381720800735</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>9.308506974836414</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>55.90301252244922</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>111.5996522922687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>321.6648057272831</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>127.8045261377225</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.7694312401339</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1319933510091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>274.1357181000192</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>251.0718348128885</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>220.428933139112</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>173.9610973318237</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.2893995353463</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.158393318536</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1391.972039273389</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>702.55736257324</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>702.55736257324</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.74665604171</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.784139101298</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>798.5184404945476</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2687.746558720408</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2687.746558720408</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2433.984773358499</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2102.921886014929</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>110.4106712369798</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>110.4106712369798</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.030215538135</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>1401.360146542938</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>1015.571893944694</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>604.5859891550863</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>236.3052261842097</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>318.8683807588021</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>871.6816390050013</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1058.381051830409</v>
       </c>
       <c r="N8" t="n">
-        <v>2290.483082123151</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W8" t="n">
-        <v>2372.235145839149</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="X8" t="n">
-        <v>1998.769387578069</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="Y8" t="n">
-        <v>1608.630055602257</v>
+        <v>1759.625845149689</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>818.7575723533688</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1486.301972380379</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.81756957972706</v>
+        <v>854.2802780048897</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>685.3440950769829</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>387.314362082254</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="G10" t="n">
         <v>71.81756957972706</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>361.2347396166876</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>361.2347396166876</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>71.81756957972706</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>71.81756957972706</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.81756957972706</v>
+        <v>1035.928742835129</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532263</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.8178837532263</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096656</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5661,13 +5661,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
         <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583948</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>4623.787448650995</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>4370.179534698583</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>4115.495046492696</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>3826.077876455735</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>3598.088325557718</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>3377.295746414188</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3210.485548300425</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2951.54259528685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2782.606412358944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2632.489772946608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2484.576679364215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4634.751540034345</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4415.150075057287</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4126.074848401485</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3871.390360195598</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3581.973190158637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3353.98363926062</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3133.19106011709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7201,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>547.5889719879178</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>400.6990244900074</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>233.5029252048874</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>162.7555498691535</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>91.69549323938426</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>339.184373405</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.45266000108569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>143.6212754172146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.1126395763556</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.75554125013218</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.00531331087754</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713558</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713558</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062534</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758103</v>
+        <v>-369598.2665758105</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387344</v>
+        <v>220369.6126387338</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493906</v>
+        <v>64565.80654493923</v>
       </c>
       <c r="E6" t="n">
-        <v>-373386.1329651429</v>
+        <v>-373733.5122194994</v>
       </c>
       <c r="F6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="G6" t="n">
-        <v>397666.5584156637</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="H6" t="n">
-        <v>397666.558415664</v>
+        <v>397319.1791613066</v>
       </c>
       <c r="I6" t="n">
-        <v>397666.558415664</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="J6" t="n">
-        <v>221243.3392230709</v>
+        <v>220895.9599687136</v>
       </c>
       <c r="K6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="L6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613071</v>
       </c>
       <c r="M6" t="n">
-        <v>273458.0477076051</v>
+        <v>273110.6684532484</v>
       </c>
       <c r="N6" t="n">
-        <v>397666.5584156637</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="O6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="P6" t="n">
-        <v>397666.5584156636</v>
+        <v>397319.179161307</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.4283321681757</v>
+        <v>32.67033523349784</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.806844538052008</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.62049154535646</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.3921979921883</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>165.1072058341351</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.53095012411995</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>120.4387434050068</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.3172516536681</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>27.57616299012994</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>158.4561285203745</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>200.8152221119609</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143572</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>233.3139244897919</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,7 +32560,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34231,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753698</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34950,13 +34950,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>184.2042872362074</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>263.5833975999494</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>500.3079215552632</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>171.212305634483</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>94.75954470991771</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,7 +36208,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37879,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1537587.347998016</v>
+        <v>1539347.878300802</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>350.0635064299827</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>327.7946815628224</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.5774062963675</v>
       </c>
       <c r="S5" t="n">
-        <v>9.308506974836414</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.5268783873314</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.1423514055438</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>111.5996522922687</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>98.68274834633206</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>114.7210274608219</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.7694312401339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>114.8498234654383</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>274.1357181000192</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>136.7848966149547</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128551</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427669</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012189</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>220.428933139112</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>93.62264337260697</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>147.3642529779084</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>94.80184639741353</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.15289212512</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.15289212512</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4415,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.171912941084</v>
       </c>
       <c r="S5" t="n">
-        <v>2687.746558720408</v>
+        <v>2657.171912941084</v>
       </c>
       <c r="T5" t="n">
-        <v>2687.746558720408</v>
+        <v>2657.171912941084</v>
       </c>
       <c r="U5" t="n">
-        <v>2433.984773358499</v>
+        <v>2403.410127579175</v>
       </c>
       <c r="V5" t="n">
-        <v>2102.921886014929</v>
+        <v>2072.347240235604</v>
       </c>
       <c r="W5" t="n">
-        <v>1750.153230744814</v>
+        <v>1719.57858496549</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858881</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2731207858881</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>563.3387302614404</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759.625845149689</v>
+        <v>1659.946301365515</v>
       </c>
       <c r="C8" t="n">
-        <v>1759.625845149689</v>
+        <v>1659.946301365515</v>
       </c>
       <c r="D8" t="n">
-        <v>1401.360146542938</v>
+        <v>1301.680602758765</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.571893944694</v>
+        <v>915.8923501605202</v>
       </c>
       <c r="F8" t="n">
-        <v>604.5859891550863</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4804,22 +4804,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>236.3052261842097</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>318.8683807588021</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>871.6816390050013</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1058.381051830409</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2597.469547234049</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2597.469547234049</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2343.7778439792</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2012.714956635629</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>1659.946301365515</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.625845149689</v>
+        <v>1659.946301365515</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.625845149689</v>
+        <v>1659.946301365515</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>818.7575723533688</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1486.301972380379</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2802780048897</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>685.3440950769829</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="D10" t="n">
-        <v>535.2274556646471</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="E10" t="n">
-        <v>387.314362082254</v>
+        <v>334.5873427956393</v>
       </c>
       <c r="F10" t="n">
-        <v>240.4244145843437</v>
+        <v>187.6973952977289</v>
       </c>
       <c r="G10" t="n">
         <v>71.81756957972706</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>1035.928742835129</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5123,22 +5123,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5843,10 +5843,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,10 +6080,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2125.941686997837</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192557</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075782</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332383</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355929</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694696</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852243</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273885</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.230692780393</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516128</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.48107116737</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793921</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348526</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121593</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121593</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121593</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121593</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270392</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,13 +7028,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,13 +7265,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>162.7555498691535</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>339.184373405</v>
+        <v>96.12069185784497</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.298872120969463e-11</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>-1.127400889475308e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.76564955277408</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>80.62055371233356</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194723</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>65.75554125013218</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>73.62417772602086</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.5336875992872</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>71.2204003741864</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713558</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062534</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26377,7 +26377,7 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-1.541667373870343e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.951008016476408e-09</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26420,46 +26420,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682719</v>
-      </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682951</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682718</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758105</v>
+        <v>-369598.2665758103</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387338</v>
+        <v>220369.6126387344</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493923</v>
+        <v>64565.80654493917</v>
       </c>
       <c r="E6" t="n">
-        <v>-373733.5122194994</v>
+        <v>-373420.8708905783</v>
       </c>
       <c r="F6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="G6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="H6" t="n">
-        <v>397319.1791613066</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="I6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="J6" t="n">
-        <v>220895.9599687136</v>
+        <v>221208.6012976352</v>
       </c>
       <c r="K6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.8204902295</v>
       </c>
       <c r="L6" t="n">
-        <v>397319.1791613071</v>
+        <v>397631.820490226</v>
       </c>
       <c r="M6" t="n">
-        <v>273110.6684532484</v>
+        <v>273423.3097821697</v>
       </c>
       <c r="N6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="O6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.820490228</v>
       </c>
       <c r="P6" t="n">
-        <v>397319.179161307</v>
+        <v>397631.8204902282</v>
       </c>
     </row>
   </sheetData>
@@ -26764,7 +26764,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26971,7 +26971,7 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-1.24100356636178e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.67033523349784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>85.98948845797258</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>24.62049154535646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>14.90099627844421</v>
       </c>
       <c r="S5" t="n">
-        <v>165.1072058341351</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.4387434050068</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>55.44230194655097</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>301.3172516536681</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>55.97013878180812</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>52.19974909374858</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8152221119609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>303.4024373464759</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348423</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713533</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663274</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817563</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162545</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175658</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159407</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460011</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236492</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669211</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043719</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292898</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651523</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078737</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659444</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521095</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442075</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422577</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473061</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862107</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007177</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558068</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742428</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937732</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275951</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189899</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121566</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869261</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796258</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355172</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588146</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392038</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106781</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920051</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417309</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670476</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532758</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467219</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9499448422525</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>513.0745614164389</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>184.2042872362074</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35190,7 +35190,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>500.3079215552632</v>
+        <v>257.2442400081082</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.560998372117</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316858</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396411</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367757</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462672</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.300110790293</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193497</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243144</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683797</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924716</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902528</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.78523960077473</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754083</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678987</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674319</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641924</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238438</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113624</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295305</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096344</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191307</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010444</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899068</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060447</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066244</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299898</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>71.39556506237828</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>374.5201816365647</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
